--- a/va_facility_data_2025-02-20/Cobb County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cobb%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Cobb County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Cobb%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd326c2d7240e4aa5a5323358cb354f67"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re32ef9a5ed654ab99ee8638e38742d22"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R096c703717bd4b52b88789f483d8b780"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd32bdedb52a441f1b21d8da3bcb78849"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0fa3b331f99e481e9daab490fa05e861"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb38925d325ad4eae9cb8150a47f86d1f"/>
   </x:sheets>
 </x:workbook>
 </file>
